--- a/oci_tools/cd3_automation_toolkit/example/CD3-ManagementServices-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-ManagementServices-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\oci_tools\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5949,8 +5949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6004,7 +6004,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>577</v>
+        <v>1122</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>573</v>
@@ -6046,7 +6046,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>577</v>
+        <v>1142</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>1133</v>
@@ -6067,7 +6067,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>577</v>
+        <v>1142</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>1134</v>
@@ -6088,7 +6088,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>577</v>
+        <v>1143</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>1135</v>
@@ -6109,7 +6109,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>1152</v>
@@ -6405,8 +6405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9134,7 +9134,7 @@
   <dimension ref="A1:Z1153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-ManagementServices-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-ManagementServices-template.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Alarms" sheetId="6" r:id="rId4"/>
     <sheet name="AlarmsTable" sheetId="7" state="hidden" r:id="rId5"/>
     <sheet name="AlarmsSheet" sheetId="8" state="hidden" r:id="rId6"/>
-    <sheet name="TablesSheet" sheetId="4" state="hidden" r:id="rId7"/>
+    <sheet name="TablesSheet" sheetId="4" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
@@ -235,9 +235,6 @@
     <t>createlocalpeeringgateway</t>
   </si>
   <si>
-    <t>deletelocalpeeringgateway</t>
-  </si>
-  <si>
     <t>updatelocalpeeringgateway</t>
   </si>
   <si>
@@ -3720,6 +3717,9 @@
       <t xml:space="preserve">Added Alarms Tab
 </t>
     </r>
+  </si>
+  <si>
+    <t>deletelocalpeeringgateway.begin</t>
   </si>
 </sst>
 </file>
@@ -5936,7 +5936,7 @@
     <row r="1" spans="1:1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:1" ht="72.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
   </sheetData>
@@ -5967,7 +5967,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="89.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -6004,10 +6004,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>8</v>
@@ -6016,7 +6016,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -6025,10 +6025,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>10</v>
@@ -6037,7 +6037,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -6046,19 +6046,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -6067,19 +6067,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G6" s="10"/>
     </row>
@@ -6088,19 +6088,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G7" s="10"/>
     </row>
@@ -6109,19 +6109,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G8" s="10"/>
     </row>
@@ -6405,8 +6405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H49" activeCellId="1" sqref="H49 H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6430,7 +6430,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="85.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -6487,13 +6487,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>19</v>
@@ -6505,16 +6505,16 @@
         <v>21</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J3" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L3" s="10"/>
     </row>
@@ -6523,13 +6523,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>19</v>
@@ -6541,16 +6541,16 @@
         <v>21</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J4" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L4" s="10"/>
     </row>
@@ -6559,13 +6559,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>19</v>
@@ -6577,16 +6577,16 @@
         <v>21</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J5" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L5" s="10"/>
     </row>
@@ -6595,13 +6595,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>19</v>
@@ -6613,16 +6613,16 @@
         <v>21</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J6" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L6" s="10"/>
     </row>
@@ -6631,13 +6631,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
@@ -6649,16 +6649,16 @@
         <v>21</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J7" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L7" s="10"/>
     </row>
@@ -6667,13 +6667,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>19</v>
@@ -6685,16 +6685,16 @@
         <v>21</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J8" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L8" s="10"/>
     </row>
@@ -6703,13 +6703,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>19</v>
@@ -6721,16 +6721,16 @@
         <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>578</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>579</v>
       </c>
       <c r="J9" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L9" s="10"/>
     </row>
@@ -6739,13 +6739,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>19</v>
@@ -6757,16 +6757,16 @@
         <v>21</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J10" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L10" s="10"/>
     </row>
@@ -6775,13 +6775,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>19</v>
@@ -6793,16 +6793,16 @@
         <v>21</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J11" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L11" s="10"/>
     </row>
@@ -6811,13 +6811,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>19</v>
@@ -6829,16 +6829,16 @@
         <v>21</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J12" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L12" s="10"/>
     </row>
@@ -6847,13 +6847,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>19</v>
@@ -6865,16 +6865,16 @@
         <v>21</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J13" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L13" s="10"/>
     </row>
@@ -6883,13 +6883,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>19</v>
@@ -6901,16 +6901,16 @@
         <v>21</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J14" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L14" s="10"/>
     </row>
@@ -6919,13 +6919,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>19</v>
@@ -6937,16 +6937,16 @@
         <v>21</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J15" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L15" s="10"/>
     </row>
@@ -6955,13 +6955,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>19</v>
@@ -6973,16 +6973,16 @@
         <v>21</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J16" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L16" s="10"/>
     </row>
@@ -6991,13 +6991,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>19</v>
@@ -7009,16 +7009,16 @@
         <v>21</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J17" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L17" s="10"/>
     </row>
@@ -7027,13 +7027,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>19</v>
@@ -7045,16 +7045,16 @@
         <v>21</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J18" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L18" s="10"/>
     </row>
@@ -7063,13 +7063,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>19</v>
@@ -7081,16 +7081,16 @@
         <v>21</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J19" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L19" s="10"/>
     </row>
@@ -7099,13 +7099,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>19</v>
@@ -7117,16 +7117,16 @@
         <v>21</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J20" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L20" s="10"/>
     </row>
@@ -7135,13 +7135,13 @@
         <v>7</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>19</v>
@@ -7153,16 +7153,16 @@
         <v>21</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J21" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L21" s="10"/>
     </row>
@@ -7171,13 +7171,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>19</v>
@@ -7192,13 +7192,13 @@
         <v>22</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L22" s="10"/>
     </row>
@@ -7207,13 +7207,13 @@
         <v>7</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>19</v>
@@ -7228,13 +7228,13 @@
         <v>22</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J23" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L23" s="10"/>
     </row>
@@ -7243,13 +7243,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>19</v>
@@ -7264,13 +7264,13 @@
         <v>22</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J24" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L24" s="10"/>
     </row>
@@ -7279,13 +7279,13 @@
         <v>7</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>19</v>
@@ -7300,13 +7300,13 @@
         <v>22</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J25" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L25" s="10"/>
     </row>
@@ -7315,13 +7315,13 @@
         <v>7</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>19</v>
@@ -7336,13 +7336,13 @@
         <v>22</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J26" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L26" s="10"/>
     </row>
@@ -7351,13 +7351,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>19</v>
@@ -7372,13 +7372,13 @@
         <v>22</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J27" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L27" s="10"/>
     </row>
@@ -7387,13 +7387,13 @@
         <v>7</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>19</v>
@@ -7408,13 +7408,13 @@
         <v>22</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J28" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L28" s="10"/>
     </row>
@@ -7423,13 +7423,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>19</v>
@@ -7444,13 +7444,13 @@
         <v>22</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J29" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L29" s="10"/>
     </row>
@@ -7459,13 +7459,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>19</v>
@@ -7480,13 +7480,13 @@
         <v>22</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J30" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L30" s="10"/>
     </row>
@@ -7495,13 +7495,13 @@
         <v>7</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>19</v>
@@ -7516,13 +7516,13 @@
         <v>22</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L31" s="10"/>
     </row>
@@ -7531,13 +7531,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>19</v>
@@ -7552,13 +7552,13 @@
         <v>22</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J32" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L32" s="10"/>
     </row>
@@ -7567,13 +7567,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>19</v>
@@ -7588,13 +7588,13 @@
         <v>22</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J33" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L33" s="10"/>
     </row>
@@ -7603,13 +7603,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>19</v>
@@ -7624,13 +7624,13 @@
         <v>22</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J34" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L34" s="10"/>
     </row>
@@ -7639,13 +7639,13 @@
         <v>7</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>19</v>
@@ -7660,13 +7660,13 @@
         <v>22</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J35" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L35" s="10"/>
     </row>
@@ -7675,13 +7675,13 @@
         <v>7</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>19</v>
@@ -7696,13 +7696,13 @@
         <v>22</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="J36" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L36" s="10"/>
     </row>
@@ -7711,13 +7711,13 @@
         <v>7</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C37" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>19</v>
@@ -7732,13 +7732,13 @@
         <v>22</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J37" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L37" s="10"/>
     </row>
@@ -7747,13 +7747,13 @@
         <v>7</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>19</v>
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L38" s="10"/>
     </row>
@@ -7783,13 +7783,13 @@
         <v>7</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C39" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>19</v>
@@ -7810,7 +7810,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L39" s="10"/>
     </row>
@@ -7819,13 +7819,13 @@
         <v>7</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C40" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>19</v>
@@ -7846,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L40" s="10"/>
     </row>
@@ -7855,13 +7855,13 @@
         <v>7</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C41" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>19</v>
@@ -7882,7 +7882,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L41" s="10"/>
     </row>
@@ -7891,13 +7891,13 @@
         <v>7</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C42" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>19</v>
@@ -7918,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L42" s="10"/>
     </row>
@@ -7927,13 +7927,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>19</v>
@@ -7954,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L43" s="10"/>
     </row>
@@ -7963,13 +7963,13 @@
         <v>7</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>19</v>
@@ -7990,7 +7990,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L44" s="10"/>
     </row>
@@ -7999,13 +7999,13 @@
         <v>7</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>19</v>
@@ -8026,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L45" s="10"/>
     </row>
@@ -8035,13 +8035,13 @@
         <v>7</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>19</v>
@@ -8062,7 +8062,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L46" s="10"/>
     </row>
@@ -8071,13 +8071,13 @@
         <v>7</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C47" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>19</v>
@@ -8098,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L47" s="10"/>
     </row>
@@ -8107,13 +8107,13 @@
         <v>7</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C48" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>19</v>
@@ -8134,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L48" s="10"/>
     </row>
@@ -8143,13 +8143,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C49" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>19</v>
@@ -8164,13 +8164,13 @@
         <v>22</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>34</v>
+        <v>1168</v>
       </c>
       <c r="J49" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L49" s="10"/>
     </row>
@@ -8179,13 +8179,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C50" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>19</v>
@@ -8200,13 +8200,13 @@
         <v>22</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J50" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L50" s="10"/>
     </row>
@@ -8215,13 +8215,13 @@
         <v>7</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>19</v>
@@ -8236,13 +8236,13 @@
         <v>22</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J51" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L51" s="10"/>
     </row>
@@ -8251,13 +8251,13 @@
         <v>7</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C52" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>19</v>
@@ -8269,16 +8269,16 @@
         <v>21</v>
       </c>
       <c r="H52" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="J52" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L52" s="10"/>
     </row>
@@ -8287,13 +8287,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C53" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>19</v>
@@ -8305,16 +8305,16 @@
         <v>21</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J53" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L53" s="10"/>
     </row>
@@ -8323,13 +8323,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C54" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>19</v>
@@ -8341,16 +8341,16 @@
         <v>21</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J54" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L54" s="10"/>
     </row>
@@ -8359,13 +8359,13 @@
         <v>7</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C55" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>19</v>
@@ -8377,16 +8377,16 @@
         <v>21</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J55" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L55" s="10"/>
     </row>
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C56" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>19</v>
@@ -8413,16 +8413,16 @@
         <v>21</v>
       </c>
       <c r="H56" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="J56" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L56" s="10"/>
     </row>
@@ -8431,13 +8431,13 @@
         <v>7</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C57" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>19</v>
@@ -8449,16 +8449,16 @@
         <v>21</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J57" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L57" s="10"/>
     </row>
@@ -8467,13 +8467,13 @@
         <v>7</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C58" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>19</v>
@@ -8485,16 +8485,16 @@
         <v>21</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J58" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L58" s="10"/>
     </row>
@@ -8503,13 +8503,13 @@
         <v>7</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C59" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>19</v>
@@ -8521,16 +8521,16 @@
         <v>21</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J59" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L59" s="10"/>
     </row>
@@ -8539,13 +8539,13 @@
         <v>7</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C60" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>19</v>
@@ -8557,16 +8557,16 @@
         <v>21</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J60" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L60" s="10"/>
     </row>
@@ -8575,13 +8575,13 @@
         <v>7</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C61" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>19</v>
@@ -8593,16 +8593,16 @@
         <v>21</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J61" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L61" s="10"/>
     </row>
@@ -8611,13 +8611,13 @@
         <v>7</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C62" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>1128</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>19</v>
@@ -8629,16 +8629,16 @@
         <v>21</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J62" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="116" customHeight="1" x14ac:dyDescent="0.35">
@@ -8646,13 +8646,13 @@
         <v>7</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>19</v>
@@ -8664,16 +8664,16 @@
         <v>21</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J63" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="L63" s="10"/>
     </row>
@@ -8682,13 +8682,13 @@
         <v>7</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>19</v>
@@ -8700,16 +8700,16 @@
         <v>21</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J64" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="L64" s="10"/>
     </row>
@@ -8718,13 +8718,13 @@
         <v>7</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>19</v>
@@ -8736,16 +8736,16 @@
         <v>21</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J65" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="L65" s="10"/>
     </row>
@@ -8754,13 +8754,13 @@
         <v>7</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>19</v>
@@ -8772,16 +8772,16 @@
         <v>21</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J66" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="L66" s="10"/>
     </row>
@@ -8790,13 +8790,13 @@
         <v>7</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>19</v>
@@ -8808,16 +8808,16 @@
         <v>21</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J67" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L67" s="10"/>
     </row>
@@ -8826,13 +8826,13 @@
         <v>7</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>19</v>
@@ -8844,16 +8844,16 @@
         <v>21</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J68" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="L68" s="10"/>
     </row>
@@ -8862,13 +8862,13 @@
         <v>7</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>19</v>
@@ -8880,16 +8880,16 @@
         <v>21</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J69" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="L69" s="10"/>
     </row>
@@ -8898,13 +8898,13 @@
         <v>7</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>19</v>
@@ -8916,16 +8916,16 @@
         <v>21</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J70" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="L70" s="10"/>
     </row>
@@ -8934,13 +8934,13 @@
         <v>7</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>19</v>
@@ -8952,16 +8952,16 @@
         <v>21</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J71" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="L71" s="10"/>
     </row>
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>19</v>
@@ -8988,16 +8988,16 @@
         <v>21</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J72" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L72" s="10"/>
     </row>
@@ -9006,13 +9006,13 @@
         <v>7</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>19</v>
@@ -9024,16 +9024,16 @@
         <v>21</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J73" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L73" s="10"/>
     </row>
@@ -9042,13 +9042,13 @@
         <v>7</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>19</v>
@@ -9060,16 +9060,16 @@
         <v>21</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J74" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L74" s="10"/>
     </row>
@@ -9078,13 +9078,13 @@
         <v>7</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>19</v>
@@ -9096,16 +9096,16 @@
         <v>21</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J75" s="10" t="b">
         <v>1</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L75" s="10"/>
     </row>
@@ -9157,7 +9157,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -9181,37 +9181,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="21" t="s">
         <v>652</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>653</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>6</v>
@@ -9234,35 +9234,35 @@
         <v>7</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>1122</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>1123</v>
       </c>
       <c r="D3" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I3" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>1119</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>1120</v>
-      </c>
       <c r="K3" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="13"/>
@@ -9284,35 +9284,35 @@
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D4" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="13"/>
@@ -9334,35 +9334,35 @@
         <v>7</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D5" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="13"/>
@@ -9384,35 +9384,35 @@
         <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D6" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="13"/>
@@ -9434,35 +9434,35 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D7" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="13"/>
@@ -9484,35 +9484,35 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D8" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="13"/>
@@ -9534,35 +9534,35 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D9" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="13"/>
@@ -9584,35 +9584,35 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D10" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="13"/>
@@ -9634,35 +9634,35 @@
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D11" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="13"/>
@@ -41707,299 +41707,299 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>655</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>658</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>661</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>663</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="10" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="10" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="10" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -42076,858 +42076,858 @@
   <sheetData>
     <row r="1" spans="1:54" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>664</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>665</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>666</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>667</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>668</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>669</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>671</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>672</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>673</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>675</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>676</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>677</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="V1" s="17" t="s">
         <v>678</v>
       </c>
-      <c r="S1" s="17" t="s">
-        <v>664</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>680</v>
-      </c>
-      <c r="U1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>681</v>
       </c>
-      <c r="V1" s="17" t="s">
-        <v>679</v>
-      </c>
-      <c r="W1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>682</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>683</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Z1" s="17" t="s">
         <v>684</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="AA1" s="17" t="s">
         <v>685</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AB1" s="17" t="s">
         <v>686</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AC1" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AD1" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AE1" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AF1" s="17" t="s">
         <v>690</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AG1" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="AH1" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="AG1" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AI1" s="17" t="s">
         <v>692</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>693</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AK1" s="17" t="s">
         <v>694</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AL1" s="17" t="s">
         <v>695</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AM1" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AN1" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AO1" s="17" t="s">
         <v>698</v>
       </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AP1" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="AP1" s="17" t="s">
+      <c r="AQ1" s="17" t="s">
         <v>700</v>
       </c>
-      <c r="AQ1" s="17" t="s">
+      <c r="AR1" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="AR1" s="17" t="s">
+      <c r="AS1" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="AS1" s="17" t="s">
+      <c r="AT1" s="17" t="s">
         <v>703</v>
       </c>
-      <c r="AT1" s="17" t="s">
+      <c r="AU1" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="AU1" s="17" t="s">
+      <c r="AV1" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="AV1" s="17" t="s">
+      <c r="AW1" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="AW1" s="17" t="s">
+      <c r="AX1" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="AX1" s="17" t="s">
+      <c r="AY1" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="AY1" s="17" t="s">
+      <c r="AZ1" s="17" t="s">
         <v>709</v>
       </c>
-      <c r="AZ1" s="17" t="s">
+      <c r="BA1" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="BA1" s="17" t="s">
+      <c r="BB1" s="17" t="s">
         <v>711</v>
-      </c>
-      <c r="BB1" s="17" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>713</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>714</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="E2" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>717</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>720</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>721</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>724</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>725</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>729</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>731</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>735</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="AF2" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG2" s="18" t="s">
         <v>713</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="AH2" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI2" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>716</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>717</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>718</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>719</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>720</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>721</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>722</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>723</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>724</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>725</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>726</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>727</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>716</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>728</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>729</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>731</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>733</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>734</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>735</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>736</v>
-      </c>
-      <c r="AA2" s="18" t="s">
-        <v>737</v>
-      </c>
-      <c r="AB2" s="18" t="s">
-        <v>738</v>
-      </c>
-      <c r="AC2" s="18" t="s">
-        <v>739</v>
-      </c>
-      <c r="AD2" s="18" t="s">
-        <v>740</v>
-      </c>
-      <c r="AE2" s="18" t="s">
-        <v>741</v>
-      </c>
-      <c r="AF2" s="18" t="s">
-        <v>742</v>
-      </c>
-      <c r="AG2" s="18" t="s">
-        <v>714</v>
-      </c>
-      <c r="AH2" s="18" t="s">
-        <v>743</v>
-      </c>
-      <c r="AI2" s="18" t="s">
+      <c r="AK2" s="18" t="s">
         <v>744</v>
       </c>
-      <c r="AJ2" s="18" t="s">
-        <v>716</v>
-      </c>
-      <c r="AK2" s="18" t="s">
+      <c r="AL2" s="18" t="s">
         <v>745</v>
       </c>
-      <c r="AL2" s="18" t="s">
+      <c r="AM2" s="18" t="s">
         <v>746</v>
       </c>
-      <c r="AM2" s="18" t="s">
+      <c r="AN2" s="18" t="s">
         <v>747</v>
       </c>
-      <c r="AN2" s="18" t="s">
+      <c r="AO2" s="18" t="s">
         <v>748</v>
       </c>
-      <c r="AO2" s="18" t="s">
+      <c r="AP2" s="18" t="s">
         <v>749</v>
       </c>
-      <c r="AP2" s="18" t="s">
+      <c r="AQ2" s="18" t="s">
         <v>750</v>
       </c>
-      <c r="AQ2" s="18" t="s">
+      <c r="AR2" s="18" t="s">
         <v>751</v>
       </c>
-      <c r="AR2" s="18" t="s">
+      <c r="AS2" s="18" t="s">
         <v>752</v>
       </c>
-      <c r="AS2" s="18" t="s">
+      <c r="AT2" s="18" t="s">
         <v>753</v>
       </c>
-      <c r="AT2" s="18" t="s">
+      <c r="AU2" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="AU2" s="18" t="s">
+      <c r="AV2" s="18" t="s">
         <v>755</v>
       </c>
-      <c r="AV2" s="18" t="s">
+      <c r="AW2" s="18" t="s">
         <v>756</v>
       </c>
-      <c r="AW2" s="18" t="s">
+      <c r="AX2" s="18" t="s">
         <v>757</v>
       </c>
-      <c r="AX2" s="18" t="s">
+      <c r="AY2" s="18" t="s">
         <v>758</v>
       </c>
-      <c r="AY2" s="18" t="s">
+      <c r="AZ2" s="18" t="s">
         <v>759</v>
       </c>
-      <c r="AZ2" s="18" t="s">
+      <c r="BA2" s="18" t="s">
         <v>760</v>
       </c>
-      <c r="BA2" s="18" t="s">
+      <c r="BB2" s="18" t="s">
         <v>761</v>
-      </c>
-      <c r="BB2" s="18" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>764</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>765</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>772</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AE3" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AF3" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AH3" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AI3" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AL3" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="AN3" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="AN3" s="6" t="s">
+      <c r="AO3" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="AO3" s="6" t="s">
+      <c r="AP3" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="AP3" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
+      <c r="AR3" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="AS3" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="AR3" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="AS3" s="6" t="s">
+      <c r="AT3" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="AT3" s="6" t="s">
+      <c r="AV3" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="AV3" s="6" t="s">
+      <c r="AW3" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="AW3" s="6" t="s">
+      <c r="AX3" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="AX3" s="6" t="s">
+      <c r="AY3" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="AY3" s="6" t="s">
+      <c r="AZ3" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="AZ3" s="6" t="s">
+      <c r="BB3" s="6" t="s">
         <v>805</v>
-      </c>
-      <c r="BB3" s="6" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="4" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>807</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>807</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="18" t="s">
         <v>810</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>811</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="K4" s="18" t="s">
         <v>812</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="L4" s="18" t="s">
         <v>813</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="M4" s="18" t="s">
         <v>814</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="N4" s="18" t="s">
         <v>815</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="P4" s="18" t="s">
         <v>816</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="Q4" s="18" t="s">
         <v>817</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="R4" s="18" t="s">
         <v>818</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="S4" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="T4" s="18" t="s">
         <v>819</v>
       </c>
-      <c r="S4" s="18" t="s">
-        <v>715</v>
-      </c>
-      <c r="T4" s="18" t="s">
+      <c r="U4" s="18" t="s">
         <v>820</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="V4" s="18" t="s">
         <v>821</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="W4" s="18" t="s">
         <v>822</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="X4" s="18" t="s">
         <v>823</v>
       </c>
-      <c r="X4" s="18" t="s">
+      <c r="Y4" s="18" t="s">
         <v>824</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="Z4" s="18" t="s">
         <v>825</v>
       </c>
-      <c r="Z4" s="18" t="s">
+      <c r="AA4" s="18" t="s">
         <v>826</v>
       </c>
-      <c r="AA4" s="18" t="s">
+      <c r="AB4" s="18" t="s">
         <v>827</v>
       </c>
-      <c r="AB4" s="18" t="s">
+      <c r="AC4" s="18" t="s">
         <v>828</v>
       </c>
-      <c r="AC4" s="18" t="s">
+      <c r="AD4" s="18" t="s">
         <v>829</v>
       </c>
-      <c r="AD4" s="18" t="s">
+      <c r="AF4" s="18" t="s">
         <v>830</v>
       </c>
-      <c r="AF4" s="18" t="s">
+      <c r="AG4" s="18" t="s">
         <v>831</v>
       </c>
-      <c r="AG4" s="18" t="s">
+      <c r="AH4" s="18" t="s">
         <v>832</v>
       </c>
-      <c r="AH4" s="18" t="s">
+      <c r="AI4" s="18" t="s">
         <v>833</v>
       </c>
-      <c r="AI4" s="18" t="s">
+      <c r="AJ4" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="AJ4" s="18" t="s">
+      <c r="AK4" s="18" t="s">
         <v>835</v>
       </c>
-      <c r="AK4" s="18" t="s">
+      <c r="AL4" s="18" t="s">
         <v>836</v>
       </c>
-      <c r="AL4" s="18" t="s">
+      <c r="AM4" s="18" t="s">
         <v>837</v>
       </c>
-      <c r="AM4" s="18" t="s">
+      <c r="AN4" s="18" t="s">
         <v>838</v>
       </c>
-      <c r="AN4" s="18" t="s">
+      <c r="AO4" s="18" t="s">
         <v>839</v>
       </c>
-      <c r="AO4" s="18" t="s">
+      <c r="AP4" s="18" t="s">
         <v>840</v>
       </c>
-      <c r="AP4" s="18" t="s">
+      <c r="AQ4" s="18" t="s">
+        <v>721</v>
+      </c>
+      <c r="AR4" s="18" t="s">
+        <v>721</v>
+      </c>
+      <c r="AS4" s="18" t="s">
         <v>841</v>
       </c>
-      <c r="AQ4" s="18" t="s">
-        <v>722</v>
-      </c>
-      <c r="AR4" s="18" t="s">
-        <v>722</v>
-      </c>
-      <c r="AS4" s="18" t="s">
+      <c r="AT4" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="AT4" s="18" t="s">
+      <c r="AV4" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="AV4" s="18" t="s">
+      <c r="AW4" s="18" t="s">
         <v>844</v>
       </c>
-      <c r="AW4" s="18" t="s">
+      <c r="AX4" s="18" t="s">
         <v>845</v>
       </c>
-      <c r="AX4" s="18" t="s">
+      <c r="AY4" s="18" t="s">
         <v>846</v>
       </c>
-      <c r="AY4" s="18" t="s">
+      <c r="AZ4" s="18" t="s">
         <v>847</v>
       </c>
-      <c r="AZ4" s="18" t="s">
+      <c r="BB4" s="18" t="s">
         <v>848</v>
-      </c>
-      <c r="BB4" s="18" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>857</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>858</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>860</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>861</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AD5" s="6" t="s">
         <v>870</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AF5" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AG5" s="6" t="s">
         <v>872</v>
       </c>
-      <c r="AG5" s="6" t="s">
+      <c r="AH5" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="AH5" s="6" t="s">
+      <c r="AJ5" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AK5" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="AK5" s="6" t="s">
+      <c r="AL5" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="AL5" s="6" t="s">
+      <c r="AM5" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="AN5" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="AM5" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="AN5" s="6" t="s">
+      <c r="AO5" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="AO5" s="6" t="s">
+      <c r="AP5" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="AP5" s="6" t="s">
+      <c r="AQ5" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="AQ5" s="6" t="s">
+      <c r="AR5" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="AS5" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="AR5" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="AS5" s="6" t="s">
+      <c r="AT5" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="AT5" s="6" t="s">
+      <c r="AV5" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="AV5" s="6" t="s">
+      <c r="AW5" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="AW5" s="6" t="s">
+      <c r="AX5" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="AX5" s="6" t="s">
+      <c r="AZ5" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="AZ5" s="6" t="s">
+      <c r="BB5" s="6" t="s">
         <v>887</v>
-      </c>
-      <c r="BB5" s="6" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C6" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>889</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>890</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>891</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>892</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="K6" s="18" t="s">
         <v>893</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="18" t="s">
         <v>894</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="M6" s="18" t="s">
         <v>895</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="N6" s="18" t="s">
         <v>896</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="P6" s="18" t="s">
         <v>897</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="Q6" s="18" t="s">
         <v>898</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="U6" s="18" t="s">
         <v>899</v>
       </c>
-      <c r="U6" s="18" t="s">
+      <c r="V6" s="18" t="s">
         <v>900</v>
       </c>
-      <c r="V6" s="18" t="s">
+      <c r="W6" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="X6" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="Y6" s="18" t="s">
         <v>901</v>
       </c>
-      <c r="W6" s="18" t="s">
-        <v>716</v>
-      </c>
-      <c r="X6" s="18" t="s">
-        <v>716</v>
-      </c>
-      <c r="Y6" s="18" t="s">
+      <c r="Z6" s="18" t="s">
         <v>902</v>
       </c>
-      <c r="Z6" s="18" t="s">
+      <c r="AF6" s="18" t="s">
         <v>903</v>
       </c>
-      <c r="AF6" s="18" t="s">
+      <c r="AH6" s="18" t="s">
         <v>904</v>
       </c>
-      <c r="AH6" s="18" t="s">
+      <c r="AJ6" s="18" t="s">
         <v>905</v>
       </c>
-      <c r="AJ6" s="18" t="s">
+      <c r="AK6" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="AK6" s="18" t="s">
+      <c r="AL6" s="18" t="s">
         <v>907</v>
       </c>
-      <c r="AL6" s="18" t="s">
+      <c r="AM6" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="AN6" s="18" t="s">
         <v>908</v>
       </c>
-      <c r="AM6" s="18" t="s">
-        <v>769</v>
-      </c>
-      <c r="AN6" s="18" t="s">
+      <c r="AO6" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="AO6" s="18" t="s">
+      <c r="AP6" s="18" t="s">
         <v>910</v>
       </c>
-      <c r="AP6" s="18" t="s">
+      <c r="AQ6" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="AR6" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="AS6" s="18" t="s">
         <v>911</v>
       </c>
-      <c r="AQ6" s="18" t="s">
-        <v>769</v>
-      </c>
-      <c r="AR6" s="18" t="s">
-        <v>769</v>
-      </c>
-      <c r="AS6" s="18" t="s">
+      <c r="AT6" s="18" t="s">
         <v>912</v>
       </c>
-      <c r="AT6" s="18" t="s">
+      <c r="AW6" s="18" t="s">
         <v>913</v>
       </c>
-      <c r="AW6" s="18" t="s">
+      <c r="AX6" s="18" t="s">
         <v>914</v>
-      </c>
-      <c r="AX6" s="18" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.35">
@@ -42936,903 +42936,903 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>917</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>921</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>922</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="U7" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AH7" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="AJ7" s="6" t="s">
+      <c r="AK7" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="AK7" s="6" t="s">
+      <c r="AM7" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="AM7" s="6" t="s">
+      <c r="AO7" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="AO7" s="6" t="s">
+      <c r="AP7" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
         <v>929</v>
       </c>
-      <c r="AP7" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="AQ7" s="6" t="s">
+      <c r="AR7" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="AS7" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="AR7" s="6" t="s">
-        <v>930</v>
-      </c>
-      <c r="AS7" s="6" t="s">
+      <c r="AT7" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="AT7" s="6" t="s">
+      <c r="AW7" s="6" t="s">
         <v>932</v>
       </c>
-      <c r="AW7" s="6" t="s">
+      <c r="AX7" s="6" t="s">
         <v>933</v>
-      </c>
-      <c r="AX7" s="6" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="8" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E8" s="18" t="s">
+        <v>934</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>935</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="K8" s="18" t="s">
         <v>936</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="L8" s="18" t="s">
         <v>937</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="M8" s="18" t="s">
         <v>938</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="N8" s="18" t="s">
         <v>939</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="P8" s="18" t="s">
         <v>940</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="U8" s="18" t="s">
         <v>941</v>
       </c>
-      <c r="U8" s="18" t="s">
+      <c r="W8" s="18" t="s">
         <v>942</v>
       </c>
-      <c r="W8" s="18" t="s">
+      <c r="X8" s="18" t="s">
         <v>943</v>
       </c>
-      <c r="X8" s="18" t="s">
+      <c r="Y8" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="AH8" s="18" t="s">
         <v>944</v>
       </c>
-      <c r="Y8" s="18" t="s">
-        <v>780</v>
-      </c>
-      <c r="AH8" s="18" t="s">
+      <c r="AK8" s="18" t="s">
         <v>945</v>
       </c>
-      <c r="AK8" s="18" t="s">
+      <c r="AM8" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="AO8" s="18" t="s">
         <v>946</v>
       </c>
-      <c r="AM8" s="18" t="s">
-        <v>813</v>
-      </c>
-      <c r="AO8" s="18" t="s">
+      <c r="AP8" s="18" t="s">
         <v>947</v>
       </c>
-      <c r="AP8" s="18" t="s">
+      <c r="AW8" s="18" t="s">
         <v>948</v>
       </c>
-      <c r="AW8" s="18" t="s">
+      <c r="AX8" s="18" t="s">
         <v>949</v>
-      </c>
-      <c r="AX8" s="18" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="9" spans="1:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J9" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>951</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>953</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>955</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="W9" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="Y9" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="W9" s="6" t="s">
-        <v>944</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="Y9" s="6" t="s">
+      <c r="AH9" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="AH9" s="6" t="s">
+      <c r="AK9" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="AK9" s="6" t="s">
+      <c r="AM9" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="AP9" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="AM9" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="AP9" s="6" t="s">
+      <c r="AW9" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="AW9" s="6" t="s">
+      <c r="AX9" s="6" t="s">
         <v>962</v>
-      </c>
-      <c r="AX9" s="6" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="10" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E10" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="J10" s="18" t="s">
         <v>964</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="K10" s="18" t="s">
         <v>965</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="L10" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="M10" s="18" t="s">
         <v>966</v>
       </c>
-      <c r="L10" s="18" t="s">
-        <v>857</v>
-      </c>
-      <c r="M10" s="18" t="s">
+      <c r="N10" s="18" t="s">
         <v>967</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="U10" s="18" t="s">
         <v>968</v>
       </c>
-      <c r="U10" s="18" t="s">
+      <c r="W10" s="18" t="s">
+        <v>824</v>
+      </c>
+      <c r="X10" s="18" t="s">
         <v>969</v>
       </c>
-      <c r="W10" s="18" t="s">
-        <v>825</v>
-      </c>
-      <c r="X10" s="18" t="s">
+      <c r="Y10" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="AH10" s="18" t="s">
         <v>970</v>
       </c>
-      <c r="Y10" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="AH10" s="18" t="s">
+      <c r="AM10" s="18" t="s">
         <v>971</v>
       </c>
-      <c r="AM10" s="18" t="s">
+      <c r="AP10" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="AP10" s="18" t="s">
+      <c r="AW10" s="18" t="s">
         <v>973</v>
       </c>
-      <c r="AW10" s="18" t="s">
+      <c r="AX10" s="18" t="s">
         <v>974</v>
-      </c>
-      <c r="AX10" s="18" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="11" spans="1:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E11" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>977</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="M11" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>979</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="U11" s="6" t="s">
         <v>980</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="W11" s="6" t="s">
         <v>981</v>
       </c>
-      <c r="W11" s="6" t="s">
+      <c r="X11" s="6" t="s">
         <v>982</v>
       </c>
-      <c r="X11" s="6" t="s">
+      <c r="Y11" s="6" t="s">
         <v>983</v>
       </c>
-      <c r="Y11" s="6" t="s">
+      <c r="AH11" s="6" t="s">
         <v>984</v>
       </c>
-      <c r="AH11" s="6" t="s">
+      <c r="AM11" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="AM11" s="6" t="s">
+      <c r="AP11" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="AP11" s="6" t="s">
+      <c r="AW11" s="6" t="s">
         <v>987</v>
       </c>
-      <c r="AW11" s="6" t="s">
+      <c r="AX11" s="6" t="s">
         <v>988</v>
-      </c>
-      <c r="AX11" s="6" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="12" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="J12" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="K12" s="18" t="s">
         <v>990</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="L12" s="18" t="s">
+        <v>920</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>918</v>
+      </c>
+      <c r="N12" s="18" t="s">
         <v>991</v>
       </c>
-      <c r="L12" s="18" t="s">
-        <v>921</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>919</v>
-      </c>
-      <c r="N12" s="18" t="s">
+      <c r="U12" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="W12" s="18" t="s">
         <v>992</v>
       </c>
-      <c r="U12" s="18" t="s">
-        <v>835</v>
-      </c>
-      <c r="W12" s="18" t="s">
+      <c r="X12" s="18" t="s">
         <v>993</v>
       </c>
-      <c r="X12" s="18" t="s">
+      <c r="Y12" s="18" t="s">
         <v>994</v>
       </c>
-      <c r="Y12" s="18" t="s">
+      <c r="AH12" s="18" t="s">
         <v>995</v>
       </c>
-      <c r="AH12" s="18" t="s">
+      <c r="AM12" s="18" t="s">
         <v>996</v>
       </c>
-      <c r="AM12" s="18" t="s">
+      <c r="AP12" s="18" t="s">
         <v>997</v>
       </c>
-      <c r="AP12" s="18" t="s">
+      <c r="AW12" s="18" t="s">
         <v>998</v>
       </c>
-      <c r="AW12" s="18" t="s">
+      <c r="AX12" s="18" t="s">
         <v>999</v>
-      </c>
-      <c r="AX12" s="18" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J13" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>939</v>
-      </c>
-      <c r="M13" s="6" t="s">
+      <c r="N13" s="6" t="s">
         <v>1002</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="U13" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="W13" s="6" t="s">
         <v>1003</v>
       </c>
-      <c r="U13" s="6" t="s">
-        <v>948</v>
-      </c>
-      <c r="W13" s="6" t="s">
+      <c r="X13" s="6" t="s">
         <v>1004</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="Y13" s="6" t="s">
         <v>1005</v>
       </c>
-      <c r="Y13" s="6" t="s">
+      <c r="AH13" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="AH13" s="6" t="s">
+      <c r="AM13" s="6" t="s">
         <v>1007</v>
       </c>
-      <c r="AM13" s="6" t="s">
+      <c r="AP13" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="AP13" s="6" t="s">
+      <c r="AW13" s="6" t="s">
         <v>1009</v>
       </c>
-      <c r="AW13" s="6" t="s">
+      <c r="AX13" s="6" t="s">
         <v>1010</v>
-      </c>
-      <c r="AX13" s="6" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="14" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L14" s="18" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M14" s="18" t="s">
         <v>1012</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="N14" s="18" t="s">
         <v>1013</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="U14" s="18" t="s">
+        <v>960</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="X14" s="18" t="s">
         <v>1014</v>
       </c>
-      <c r="U14" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="W14" s="18" t="s">
-        <v>970</v>
-      </c>
-      <c r="X14" s="18" t="s">
+      <c r="Y14" s="18" t="s">
         <v>1015</v>
       </c>
-      <c r="Y14" s="18" t="s">
+      <c r="AH14" s="18" t="s">
         <v>1016</v>
       </c>
-      <c r="AH14" s="18" t="s">
+      <c r="AM14" s="18" t="s">
         <v>1017</v>
       </c>
-      <c r="AM14" s="18" t="s">
+      <c r="AP14" s="18" t="s">
         <v>1018</v>
       </c>
-      <c r="AP14" s="18" t="s">
+      <c r="AW14" s="18" t="s">
         <v>1019</v>
       </c>
-      <c r="AW14" s="18" t="s">
+      <c r="AX14" s="18" t="s">
         <v>1020</v>
-      </c>
-      <c r="AX14" s="18" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="15" spans="1:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L15" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>1022</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="N15" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="W15" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="X15" s="6" t="s">
         <v>1024</v>
       </c>
-      <c r="W15" s="6" t="s">
-        <v>983</v>
-      </c>
-      <c r="X15" s="6" t="s">
+      <c r="Y15" s="6" t="s">
         <v>1025</v>
       </c>
-      <c r="Y15" s="6" t="s">
+      <c r="AM15" s="6" t="s">
         <v>1026</v>
       </c>
-      <c r="AM15" s="6" t="s">
+      <c r="AP15" s="6" t="s">
         <v>1027</v>
       </c>
-      <c r="AP15" s="6" t="s">
+      <c r="AW15" s="6" t="s">
         <v>1028</v>
-      </c>
-      <c r="AW15" s="6" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="16" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L16" s="18" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M16" s="18" t="s">
         <v>1030</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="N16" s="18" t="s">
         <v>1031</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="W16" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="X16" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y16" s="18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AM16" s="18" t="s">
         <v>1032</v>
       </c>
-      <c r="W16" s="18" t="s">
-        <v>994</v>
-      </c>
-      <c r="X16" s="18" t="s">
-        <v>781</v>
-      </c>
-      <c r="Y16" s="18" t="s">
-        <v>1005</v>
-      </c>
-      <c r="AM16" s="18" t="s">
+      <c r="AP16" s="18" t="s">
         <v>1033</v>
       </c>
-      <c r="AP16" s="18" t="s">
+      <c r="AW16" s="18" t="s">
         <v>1034</v>
-      </c>
-      <c r="AW16" s="18" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="17" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L17" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>1036</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="N17" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="W17" s="6" t="s">
         <v>1038</v>
       </c>
-      <c r="W17" s="6" t="s">
+      <c r="X17" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="X17" s="6" t="s">
+      <c r="Y17" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="AM17" s="6" t="s">
         <v>1040</v>
       </c>
-      <c r="Y17" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="AM17" s="6" t="s">
+      <c r="AP17" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="AP17" s="6" t="s">
+      <c r="AW17" s="6" t="s">
         <v>1042</v>
-      </c>
-      <c r="AW17" s="6" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="18" spans="12:49" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L18" s="18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M18" s="18" t="s">
         <v>1044</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="N18" s="18" t="s">
         <v>1045</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="W18" s="18" t="s">
         <v>1046</v>
       </c>
-      <c r="W18" s="18" t="s">
+      <c r="X18" s="18" t="s">
         <v>1047</v>
       </c>
-      <c r="X18" s="18" t="s">
+      <c r="Y18" s="18" t="s">
         <v>1048</v>
       </c>
-      <c r="Y18" s="18" t="s">
+      <c r="AM18" s="18" t="s">
         <v>1049</v>
       </c>
-      <c r="AM18" s="18" t="s">
+      <c r="AP18" s="18" t="s">
         <v>1050</v>
       </c>
-      <c r="AP18" s="18" t="s">
+      <c r="AW18" s="18" t="s">
         <v>1051</v>
-      </c>
-      <c r="AW18" s="18" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="19" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L19" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>1053</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="N19" s="6" t="s">
         <v>1054</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="W19" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="Y19" s="6" t="s">
         <v>1055</v>
       </c>
-      <c r="W19" s="6" t="s">
-        <v>1040</v>
-      </c>
-      <c r="X19" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="Y19" s="6" t="s">
+      <c r="AM19" s="6" t="s">
         <v>1056</v>
       </c>
-      <c r="AM19" s="6" t="s">
+      <c r="AP19" s="6" t="s">
         <v>1057</v>
-      </c>
-      <c r="AP19" s="6" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="20" spans="12:49" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L20" s="18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M20" s="18" t="s">
         <v>1059</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="N20" s="18" t="s">
         <v>1060</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="W20" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="X20" s="18" t="s">
+        <v>1015</v>
+      </c>
+      <c r="Y20" s="18" t="s">
         <v>1061</v>
       </c>
-      <c r="W20" s="18" t="s">
-        <v>781</v>
-      </c>
-      <c r="X20" s="18" t="s">
-        <v>1016</v>
-      </c>
-      <c r="Y20" s="18" t="s">
+      <c r="AM20" s="18" t="s">
         <v>1062</v>
       </c>
-      <c r="AM20" s="18" t="s">
+      <c r="AP20" s="18" t="s">
         <v>1063</v>
-      </c>
-      <c r="AP20" s="18" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="21" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L21" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>1065</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="N21" s="6" t="s">
         <v>1066</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="W21" s="6" t="s">
         <v>1067</v>
       </c>
-      <c r="W21" s="6" t="s">
+      <c r="X21" s="6" t="s">
+        <v>983</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AM21" s="6" t="s">
         <v>1068</v>
       </c>
-      <c r="X21" s="6" t="s">
-        <v>984</v>
-      </c>
-      <c r="Y21" s="6" t="s">
-        <v>1040</v>
-      </c>
-      <c r="AM21" s="6" t="s">
+      <c r="AP21" s="6" t="s">
         <v>1069</v>
-      </c>
-      <c r="AP21" s="6" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="22" spans="12:49" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L22" s="18" t="s">
+        <v>1070</v>
+      </c>
+      <c r="N22" s="18" t="s">
         <v>1071</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="W22" s="18" t="s">
         <v>1072</v>
       </c>
-      <c r="W22" s="18" t="s">
+      <c r="X22" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="Y22" s="18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AM22" s="18" t="s">
         <v>1073</v>
-      </c>
-      <c r="X22" s="18" t="s">
-        <v>995</v>
-      </c>
-      <c r="Y22" s="18" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AM22" s="18" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="23" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L23" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="N23" s="6" t="s">
         <v>1075</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="W23" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="W23" s="6" t="s">
+      <c r="X23" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="AM23" s="6" t="s">
         <v>1077</v>
-      </c>
-      <c r="X23" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>970</v>
-      </c>
-      <c r="AM23" s="6" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="24" spans="12:49" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L24" s="18" t="s">
+        <v>1078</v>
+      </c>
+      <c r="N24" s="18" t="s">
         <v>1079</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="W24" s="18" t="s">
         <v>1080</v>
       </c>
-      <c r="W24" s="18" t="s">
-        <v>1081</v>
-      </c>
       <c r="X24" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="Y24" s="18" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AM24" s="18" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="25" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L25" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="N25" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="W25" s="6" t="s">
         <v>1083</v>
       </c>
-      <c r="W25" s="6" t="s">
+      <c r="X25" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="AM25" s="6" t="s">
         <v>1084</v>
-      </c>
-      <c r="X25" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="Y25" s="6" t="s">
-        <v>944</v>
-      </c>
-      <c r="AM25" s="6" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="26" spans="12:49" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L26" s="18" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="N26" s="18" t="s">
+        <v>1085</v>
+      </c>
+      <c r="W26" s="18" t="s">
         <v>1086</v>
       </c>
-      <c r="W26" s="18" t="s">
+      <c r="X26" s="18" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Y26" s="18" t="s">
         <v>1087</v>
       </c>
-      <c r="X26" s="18" t="s">
-        <v>1062</v>
-      </c>
-      <c r="Y26" s="18" t="s">
-        <v>1088</v>
-      </c>
       <c r="AM26" s="18" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L27" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="N27" s="6" t="s">
         <v>1089</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="W27" s="6" t="s">
         <v>1090</v>
       </c>
-      <c r="W27" s="6" t="s">
-        <v>1091</v>
-      </c>
       <c r="X27" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Y27" s="6" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AM27" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="28" spans="12:49" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N28" s="18" t="s">
+        <v>1091</v>
+      </c>
+      <c r="W28" s="18" t="s">
         <v>1092</v>
       </c>
-      <c r="W28" s="18" t="s">
+      <c r="X28" s="18" t="s">
+        <v>1055</v>
+      </c>
+      <c r="Y28" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="AM28" s="18" t="s">
         <v>1093</v>
-      </c>
-      <c r="X28" s="18" t="s">
-        <v>1056</v>
-      </c>
-      <c r="Y28" s="18" t="s">
-        <v>994</v>
-      </c>
-      <c r="AM28" s="18" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="29" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N29" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="Y29" s="6" t="s">
         <v>1095</v>
       </c>
-      <c r="W29" s="6" t="s">
-        <v>1048</v>
-      </c>
-      <c r="Y29" s="6" t="s">
+      <c r="AM29" s="6" t="s">
         <v>1096</v>
-      </c>
-      <c r="AM29" s="6" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="30" spans="12:49" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N30" s="18" t="s">
+        <v>1097</v>
+      </c>
+      <c r="W30" s="18" t="s">
         <v>1098</v>
       </c>
-      <c r="W30" s="18" t="s">
+      <c r="Y30" s="18" t="s">
         <v>1099</v>
       </c>
-      <c r="Y30" s="18" t="s">
+      <c r="AM30" s="18" t="s">
         <v>1100</v>
-      </c>
-      <c r="AM30" s="18" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="31" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W31" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Y31" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="Y31" s="6" t="s">
-        <v>1103</v>
-      </c>
       <c r="AM31" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="32" spans="12:49" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W32" s="18" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Y32" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AM32" s="18" t="s">
         <v>1104</v>
-      </c>
-      <c r="Y32" s="18" t="s">
-        <v>1025</v>
-      </c>
-      <c r="AM32" s="18" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="33" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W33" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AM33" s="6" t="s">
         <v>1106</v>
-      </c>
-      <c r="AM33" s="6" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="34" spans="23:39" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W34" s="18" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AM34" s="18" t="s">
         <v>1108</v>
-      </c>
-      <c r="AM34" s="18" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="35" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W35" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AM35" s="6" t="s">
         <v>1110</v>
-      </c>
-      <c r="AM35" s="6" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="36" spans="23:39" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W36" s="18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AM36" s="18" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="37" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W37" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AM37" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="38" spans="23:39" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W38" s="18" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AM38" s="18" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="39" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W39" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AM39" s="6" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="40" spans="23:39" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W40" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AM40" s="18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="41" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W41" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="42" spans="23:39" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W42" s="18" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="43" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W43" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="44" spans="23:39" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W44" s="18" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="45" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W45" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="46" spans="23:39" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W46" s="18" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="47" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W47" s="6" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="48" spans="23:39" s="18" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W48" s="18" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
   </sheetData>
@@ -43844,8 +43844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43874,848 +43874,848 @@
   <sheetData>
     <row r="1" spans="1:29" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" t="s">
         <v>81</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>82</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>83</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>597</v>
+      </c>
+      <c r="Z1" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" t="s">
-        <v>598</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>86</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>87</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" t="s">
         <v>96</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>97</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" t="s">
         <v>103</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" t="s">
         <v>120</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>121</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" t="s">
         <v>127</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" t="s">
         <v>144</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>145</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" t="s">
         <v>151</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" t="s">
         <v>168</v>
       </c>
-      <c r="I5" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" t="s">
         <v>174</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA5" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" t="s">
         <v>191</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>192</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="N6" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" t="s">
         <v>198</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="W6" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AB6" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" t="s">
         <v>215</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>216</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>220</v>
-      </c>
       <c r="N7" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="T7" t="s">
         <v>221</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA7" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB7" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AC7" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I8" t="s">
         <v>236</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>237</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S8" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="W8" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA8" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AB8" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" t="s">
         <v>254</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>255</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="4"/>
       <c r="N9" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="W9" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB9" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="AB9" s="4" t="s">
+      <c r="AC9" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" t="s">
         <v>270</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>271</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="L10" s="2"/>
       <c r="N10" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="S10" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="W10" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB10" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" t="s">
         <v>285</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>286</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="N11" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>28</v>
@@ -44723,55 +44723,55 @@
       <c r="S11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="W11" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB11" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="AC11" s="4"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" t="s">
         <v>298</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="J12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="N12" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>32</v>
@@ -44779,49 +44779,49 @@
       <c r="S12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB12" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" t="s">
         <v>309</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
+        <v>286</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="J13" t="s">
-        <v>287</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="N13" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>29</v>
@@ -44829,60 +44829,60 @@
       <c r="S13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB13" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="AC13" s="4"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" t="s">
         <v>320</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>321</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="S14" s="2"/>
       <c r="V14" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
@@ -44892,42 +44892,42 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" t="s">
         <v>330</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="N15" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S15" s="2"/>
       <c r="V15" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -44937,41 +44937,41 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" t="s">
         <v>340</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="N16" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
@@ -44981,39 +44981,39 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" t="s">
         <v>350</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="K17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
@@ -45024,36 +45024,36 @@
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" t="s">
         <v>358</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="K18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>34</v>
+        <v>1168</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
@@ -45064,36 +45064,36 @@
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" t="s">
         <v>366</v>
       </c>
-      <c r="I19" t="s">
-        <v>367</v>
-      </c>
       <c r="J19" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K19" s="2"/>
       <c r="N19" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
@@ -45103,33 +45103,33 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="K20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
@@ -45139,33 +45139,33 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="K21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
@@ -45175,30 +45175,30 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="N22" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
@@ -45208,30 +45208,30 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="N23" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
@@ -45241,28 +45241,28 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="J24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -45272,28 +45272,28 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="J25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -45303,28 +45303,28 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="J26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
@@ -45334,814 +45334,814 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="J27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="J28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="J29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="J30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="J31" s="2"/>
       <c r="N31" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="J32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="J33" s="2"/>
       <c r="N33" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="J34" s="2"/>
       <c r="N34" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="J35" s="2"/>
       <c r="N35" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="J36" s="2"/>
       <c r="N36" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="N37" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="N38" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="N39" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>464</v>
-      </c>
       <c r="N40" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>467</v>
-      </c>
       <c r="N41" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="N42" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="N43" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="N44" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B45" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="N45" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="N46" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="N47" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="N48" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="N49" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>490</v>
-      </c>
       <c r="N50" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="N51" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B53" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B54" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B55" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H67" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H68" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H69" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H70" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" s="3"/>
       <c r="H71" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H72" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H73" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H74" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H75" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H76" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H77" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H78" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H79" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H80" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H81" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H82" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H83" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H84" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H85" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H86" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H87" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H88" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H89" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H90" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H91" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H92" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H93" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H94" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H95" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H96" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H97" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H98" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H99" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H100" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H101" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H102" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H103" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H104" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H105" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H106" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H107" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H108" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="109" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H109" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="110" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H110" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="111" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H111" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="112" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H112" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H113" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="114" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H114" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="115" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H115" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="116" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H116" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="117" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H117" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="118" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H118" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="119" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H119" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="120" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H120" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="121" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H121" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="122" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H122" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="123" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H123" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="124" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H124" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="125" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H125" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="126" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H126" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="127" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H127" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="128" spans="8:8" x14ac:dyDescent="0.35">

--- a/oci_tools/cd3_automation_toolkit/example/CD3-ManagementServices-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-ManagementServices-template.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Alarms" sheetId="6" r:id="rId4"/>
     <sheet name="AlarmsTable" sheetId="7" state="hidden" r:id="rId5"/>
     <sheet name="AlarmsSheet" sheetId="8" state="hidden" r:id="rId6"/>
-    <sheet name="TablesSheet" sheetId="4" r:id="rId7"/>
+    <sheet name="TablesSheet" sheetId="4" state="hidden" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-ManagementServices-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-ManagementServices-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -5924,7 +5924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -5949,8 +5949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6405,8 +6405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H49" activeCellId="1" sqref="H49 H49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6482,7 +6482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>1126</v>
@@ -7207,7 +7207,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>1126</v>
@@ -7243,7 +7243,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>1126</v>
@@ -7279,7 +7279,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>1126</v>
@@ -7315,7 +7315,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>1126</v>
@@ -7351,7 +7351,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>1126</v>
@@ -7387,7 +7387,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>1126</v>
@@ -7423,7 +7423,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>1126</v>
@@ -7459,7 +7459,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>1126</v>
@@ -7495,7 +7495,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>1126</v>
@@ -7531,7 +7531,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>1126</v>
@@ -7567,7 +7567,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>1126</v>
@@ -7603,7 +7603,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>1126</v>
@@ -7639,7 +7639,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>1126</v>
@@ -7675,7 +7675,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>1126</v>
@@ -7711,7 +7711,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>1126</v>
@@ -7747,7 +7747,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>1126</v>
@@ -7783,7 +7783,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>1126</v>
@@ -7819,7 +7819,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>1126</v>
@@ -7855,7 +7855,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>1126</v>
@@ -7891,7 +7891,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>1126</v>
@@ -7927,7 +7927,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>1126</v>
@@ -7963,7 +7963,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>1126</v>
@@ -7999,7 +7999,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>1126</v>
@@ -8035,7 +8035,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>1126</v>
@@ -8071,7 +8071,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>1126</v>
@@ -8107,7 +8107,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>1126</v>
@@ -8143,7 +8143,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>1126</v>
@@ -8179,7 +8179,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>1126</v>
@@ -8215,7 +8215,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>1126</v>
@@ -8251,7 +8251,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>1126</v>
@@ -8287,7 +8287,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>1126</v>
@@ -8323,7 +8323,7 @@
         <v>7</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>1126</v>
@@ -8359,7 +8359,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>1126</v>
@@ -8395,7 +8395,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>1126</v>
@@ -8431,7 +8431,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>1126</v>
@@ -8467,7 +8467,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>1126</v>
@@ -8503,7 +8503,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>1126</v>
@@ -8539,7 +8539,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>1126</v>
@@ -8575,7 +8575,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>1126</v>
@@ -8611,7 +8611,7 @@
         <v>7</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>575</v>
+        <v>1121</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>1126</v>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-ManagementServices-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-ManagementServices-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -3648,6 +3648,9 @@
                                 Example: Operations.CostCenter=01;Users.Name=user01</t>
   </si>
   <si>
+    <t>deletelocalpeeringgateway.begin</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">
 </t>
@@ -3703,7 +3706,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">v9
+      <t xml:space="preserve">v9.0
 </t>
     </r>
     <r>
@@ -3717,9 +3720,6 @@
       <t xml:space="preserve">Added Alarms Tab
 </t>
     </r>
-  </si>
-  <si>
-    <t>deletelocalpeeringgateway.begin</t>
   </si>
 </sst>
 </file>
@@ -5924,8 +5924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5936,7 +5936,7 @@
     <row r="1" spans="1:1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:1" ht="72.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
   </sheetData>
@@ -6405,7 +6405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -8164,7 +8164,7 @@
         <v>22</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="J49" s="10" t="b">
         <v>1</v>
@@ -45046,7 +45046,7 @@
         <v>615</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>360</v>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-ManagementServices-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-ManagementServices-template.xlsx
@@ -3664,49 +3664,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>release version-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">v9.0
+      <t xml:space="preserve">CD3 Automation Toolkit Release - v9.0
 </t>
     </r>
     <r>
@@ -5925,7 +5883,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5941,7 +5899,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/oci_tools/cd3_automation_toolkit/example/CD3-ManagementServices-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-ManagementServices-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\oci_tools\cd3_automation_toolkit\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3664,19 +3664,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">CD3 Automation Toolkit Release - v9.0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Added Alarms Tab
-</t>
+      <t>CD3 Automation Toolkit Release - v9.1</t>
     </r>
   </si>
 </sst>
@@ -5883,7 +5871,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5907,7 +5895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6363,8 +6351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-ManagementServices-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-ManagementServices-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D268D5C-A6BD-D240-8C76-D97666CDA64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FC124C-19A2-0E48-B5A1-437E1E857170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23000" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3665,7 +3665,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CD3 Automation Toolkit Release - v9.1</t>
+      <t>CD3 Automation Toolkit Release - v9.2</t>
     </r>
   </si>
 </sst>
